--- a/WASH_shiny.xlsx
+++ b/WASH_shiny.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/018fd3f915004678/Documents/GitHub/plhrTemplate/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BB68A24-8818-4E79-8B86-2A15AC5ED6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="731" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19635" windowHeight="7200" tabRatio="731" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="contents" sheetId="2" r:id="rId1"/>
@@ -23,17 +17,53 @@
     <sheet name="td_modules" sheetId="14" r:id="rId8"/>
     <sheet name="td_modules_started" sheetId="15" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="134">
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
-    <t>name</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>Demographics</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>demographics</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>Engagement</t>
+  </si>
+  <si>
+    <t>Tabbed_display</t>
+  </si>
+  <si>
+    <t>td_engagement</t>
+  </si>
+  <si>
+    <t>lightbulb</t>
+  </si>
+  <si>
+    <t>Modules</t>
+  </si>
+  <si>
+    <t>td_modules</t>
   </si>
   <si>
     <t>value</t>
@@ -48,228 +78,285 @@
     <t>variable_value</t>
   </si>
   <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>bar_table</t>
+  </si>
+  <si>
     <t>box1</t>
   </si>
   <si>
+    <t>text = "Gender", colour = "blue"</t>
+  </si>
+  <si>
+    <t>rp.contact.field.user_gender</t>
+  </si>
+  <si>
+    <t>bar_freq</t>
+  </si>
+  <si>
     <t>box2</t>
   </si>
   <si>
+    <t>text = "Language", colour = "blue"</t>
+  </si>
+  <si>
+    <t>rp.contact.field._app_language</t>
+  </si>
+  <si>
+    <t>boxplot_freq</t>
+  </si>
+  <si>
     <t>box3</t>
   </si>
   <si>
+    <t>text = "Number of App Launches", colour = "blue"</t>
+  </si>
+  <si>
+    <t>rp.contact.field.app_launch_count</t>
+  </si>
+  <si>
+    <t>boxplot_summary</t>
+  </si>
+  <si>
     <t>box4</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Demographics</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>demographics</t>
-  </si>
-  <si>
-    <t>text = "Gender", colour = "blue"</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>users</t>
-  </si>
-  <si>
-    <t>Tabbed_display</t>
-  </si>
-  <si>
-    <t>row</t>
-  </si>
-  <si>
-    <t>bar_table</t>
-  </si>
-  <si>
-    <t>Engagement</t>
-  </si>
-  <si>
-    <t>lightbulb</t>
-  </si>
-  <si>
-    <t>td_engagement</t>
-  </si>
-  <si>
-    <t>rp.contact.field.app_launch_count</t>
+    <t>text = "Max. Days between Launches", colour = "blue"</t>
   </si>
   <si>
     <t>rp.contact.field.max_days_between_app_launches</t>
   </si>
   <si>
-    <t>rp.contact.field.user_gender</t>
-  </si>
-  <si>
-    <t>rp.contact.field._app_language</t>
-  </si>
-  <si>
-    <t>text = "Language", colour = "blue"</t>
-  </si>
-  <si>
-    <t>text = "Number of App Launches", colour = "blue"</t>
-  </si>
-  <si>
-    <t>text = "Max. Days between Launches", colour = "blue"</t>
-  </si>
-  <si>
     <t>boxplot_table</t>
   </si>
   <si>
     <t>box5</t>
   </si>
   <si>
+    <t>Started</t>
+  </si>
+  <si>
+    <t>td_eng_started</t>
+  </si>
+  <si>
+    <t>Started (Toggle)</t>
+  </si>
+  <si>
+    <t>td_eng_started_toggle</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>td_eng_completed</t>
+  </si>
+  <si>
+    <t>Completed (Toggle)</t>
+  </si>
+  <si>
+    <t>td_eng_completed_toggle</t>
+  </si>
+  <si>
+    <t>text = "Completed Introduction", colour = "blue"</t>
+  </si>
+  <si>
+    <t>introduction_completed_not_toggle</t>
+  </si>
+  <si>
+    <t>text = "Completed Safe Food", colour = "blue"</t>
+  </si>
+  <si>
+    <t>safe_food_completed_not_toggle</t>
+  </si>
+  <si>
+    <t>text = "Completed Handwashing", colour = "blue"</t>
+  </si>
+  <si>
+    <t>handwashing_with_soap_completed_not_toggle</t>
+  </si>
+  <si>
+    <t>text = "Completed Safe Drinking Water", colour = "blue"</t>
+  </si>
+  <si>
+    <t>safe_drinking_water_completed_not_toggle</t>
+  </si>
+  <si>
+    <t>text = "Completed Waste", colour = "blue"</t>
+  </si>
+  <si>
+    <t>waste_completed_not_toggle</t>
+  </si>
+  <si>
     <t>box6</t>
   </si>
   <si>
+    <t>text = "Completed Celebration", colour = "blue"</t>
+  </si>
+  <si>
+    <t>celebration_completed_not_toggle</t>
+  </si>
+  <si>
     <t>box7</t>
   </si>
   <si>
+    <t>text = "Completed Bathing", colour = "blue"</t>
+  </si>
+  <si>
+    <t>bathing_completed_not_toggle</t>
+  </si>
+  <si>
     <t>box8</t>
   </si>
   <si>
+    <t>text = "Completed Healthy Families", colour = "blue"</t>
+  </si>
+  <si>
+    <t>healthy_families_completed_not_toggle</t>
+  </si>
+  <si>
     <t>box9</t>
   </si>
   <si>
+    <t>text = "Completed When to Wash Hands", colour = "blue"</t>
+  </si>
+  <si>
+    <t>when_to_wash_your_hands_completed_not_toggle</t>
+  </si>
+  <si>
     <t>box10</t>
   </si>
   <si>
+    <t>text = "Completed Clean Toilets", colour = "blue"</t>
+  </si>
+  <si>
+    <t>clean_toilets_completed_not_toggle</t>
+  </si>
+  <si>
     <t>box11</t>
   </si>
   <si>
+    <t>text = "Completed Healthy Homes", colour = "blue"</t>
+  </si>
+  <si>
+    <t>healthy_homes_completed_not_toggle</t>
+  </si>
+  <si>
     <t>box12</t>
   </si>
   <si>
-    <t>text = "Completed Introduction", colour = "blue"</t>
-  </si>
-  <si>
-    <t>text = "Completed Safe Food", colour = "blue"</t>
-  </si>
-  <si>
-    <t>text = "Completed Handwashing", colour = "blue"</t>
-  </si>
-  <si>
-    <t>text = "Completed Safe Drinking Water", colour = "blue"</t>
-  </si>
-  <si>
-    <t>text = "Completed Waste", colour = "blue"</t>
-  </si>
-  <si>
-    <t>text = "Completed Celebration", colour = "blue"</t>
-  </si>
-  <si>
-    <t>text = "Completed Bathing", colour = "blue"</t>
-  </si>
-  <si>
-    <t>text = "Completed Healthy Families", colour = "blue"</t>
-  </si>
-  <si>
-    <t>text = "Completed When to Wash Hands", colour = "blue"</t>
-  </si>
-  <si>
-    <t>text = "Completed Clean Toilets", colour = "blue"</t>
-  </si>
-  <si>
-    <t>text = "Completed Healthy Homes", colour = "blue"</t>
-  </si>
-  <si>
     <t>text = "Completed How to Wash Hands", colour = "blue"</t>
   </si>
   <si>
-    <t>Started</t>
-  </si>
-  <si>
-    <t>Completed (Toggle)</t>
-  </si>
-  <si>
-    <t>td_eng_started</t>
-  </si>
-  <si>
-    <t>td_eng_completed</t>
+    <t>how_to_wash_your_hands_completed_not_toggle</t>
+  </si>
+  <si>
+    <t>introduction_completed_toggle</t>
+  </si>
+  <si>
+    <t>safe_food_completed_toggle</t>
+  </si>
+  <si>
+    <t>handwashing_with_soap_completed_toggle</t>
+  </si>
+  <si>
+    <t>safe_drinking_water_completed_toggle</t>
+  </si>
+  <si>
+    <t>waste_completed_toggle</t>
+  </si>
+  <si>
+    <t>celebration_completed_toggle</t>
+  </si>
+  <si>
+    <t>bathing_completed_toggle</t>
+  </si>
+  <si>
+    <t>healthy_families_completed_toggle</t>
+  </si>
+  <si>
+    <t>when_to_wash_your_hands_completed_toggle</t>
+  </si>
+  <si>
+    <t>clean_toilets_completed_toggle</t>
+  </si>
+  <si>
+    <t>healthy_homes_completed_toggle</t>
+  </si>
+  <si>
+    <t>how_to_wash_your_hands_completed_toggle</t>
   </si>
   <si>
     <t>text = "Started Introduction", colour = "blue"</t>
   </si>
   <si>
+    <t>introduction_started_not_toggle</t>
+  </si>
+  <si>
     <t>text = "Started Safe Food", colour = "blue"</t>
   </si>
   <si>
+    <t>safe_food_started_not_toggle</t>
+  </si>
+  <si>
     <t>text = "Started Handwashing", colour = "blue"</t>
   </si>
   <si>
+    <t>handwashing_with_soap_started_not_toggle</t>
+  </si>
+  <si>
     <t>text = "Started Safe Drinking Water", colour = "blue"</t>
   </si>
   <si>
+    <t>safe_drinking_water_started_not_toggle</t>
+  </si>
+  <si>
     <t>text = "Started Waste", colour = "blue"</t>
   </si>
   <si>
+    <t>waste_started_not_toggle</t>
+  </si>
+  <si>
     <t>text = "Started Celebration", colour = "blue"</t>
   </si>
   <si>
+    <t>celebration_started_not_toggle</t>
+  </si>
+  <si>
     <t>text = "Started Bathing", colour = "blue"</t>
   </si>
   <si>
+    <t>bathing_started_not_toggle</t>
+  </si>
+  <si>
     <t>text = "Started Healthy Families", colour = "blue"</t>
   </si>
   <si>
+    <t>healthy_families_started_not_toggle</t>
+  </si>
+  <si>
     <t>text = "Started When to Wash Hands", colour = "blue"</t>
   </si>
   <si>
+    <t>when_to_wash_your_hands_started_not_toggle</t>
+  </si>
+  <si>
     <t>text = "Started Clean Toilets", colour = "blue"</t>
   </si>
   <si>
+    <t>clean_toilets_started_not_toggle</t>
+  </si>
+  <si>
     <t>text = "Started Healthy Homes", colour = "blue"</t>
   </si>
   <si>
+    <t>healthy_homes_started_not_toggle</t>
+  </si>
+  <si>
     <t>text = "Started How to Wash Hands", colour = "blue"</t>
   </si>
   <si>
-    <t>Started (Toggle)</t>
-  </si>
-  <si>
-    <t>td_eng_started_toggle</t>
-  </si>
-  <si>
-    <t>introduction_started_not_toggle</t>
-  </si>
-  <si>
-    <t>safe_food_started_not_toggle</t>
-  </si>
-  <si>
-    <t>handwashing_with_soap_started_not_toggle</t>
-  </si>
-  <si>
-    <t>safe_drinking_water_started_not_toggle</t>
-  </si>
-  <si>
-    <t>waste_started_not_toggle</t>
-  </si>
-  <si>
-    <t>celebration_started_not_toggle</t>
-  </si>
-  <si>
-    <t>bathing_started_not_toggle</t>
-  </si>
-  <si>
-    <t>healthy_families_started_not_toggle</t>
-  </si>
-  <si>
-    <t>when_to_wash_your_hands_started_not_toggle</t>
-  </si>
-  <si>
-    <t>clean_toilets_started_not_toggle</t>
-  </si>
-  <si>
-    <t>healthy_homes_started_not_toggle</t>
-  </si>
-  <si>
     <t>how_to_wash_your_hands_started_not_toggle</t>
   </si>
   <si>
@@ -309,108 +396,24 @@
     <t>how_to_wash_your_hands_started_toggle</t>
   </si>
   <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>td_eng_completed_toggle</t>
-  </si>
-  <si>
-    <t>introduction_completed_toggle</t>
-  </si>
-  <si>
-    <t>safe_food_completed_toggle</t>
-  </si>
-  <si>
-    <t>handwashing_with_soap_completed_toggle</t>
-  </si>
-  <si>
-    <t>safe_drinking_water_completed_toggle</t>
-  </si>
-  <si>
-    <t>waste_completed_toggle</t>
-  </si>
-  <si>
-    <t>celebration_completed_toggle</t>
-  </si>
-  <si>
-    <t>bathing_completed_toggle</t>
-  </si>
-  <si>
-    <t>healthy_families_completed_toggle</t>
-  </si>
-  <si>
-    <t>when_to_wash_your_hands_completed_toggle</t>
-  </si>
-  <si>
-    <t>clean_toilets_completed_toggle</t>
-  </si>
-  <si>
-    <t>healthy_homes_completed_toggle</t>
-  </si>
-  <si>
-    <t>how_to_wash_your_hands_completed_toggle</t>
-  </si>
-  <si>
-    <t>introduction_completed_not_toggle</t>
-  </si>
-  <si>
-    <t>safe_food_completed_not_toggle</t>
-  </si>
-  <si>
-    <t>handwashing_with_soap_completed_not_toggle</t>
-  </si>
-  <si>
-    <t>safe_drinking_water_completed_not_toggle</t>
-  </si>
-  <si>
-    <t>waste_completed_not_toggle</t>
-  </si>
-  <si>
-    <t>celebration_completed_not_toggle</t>
-  </si>
-  <si>
-    <t>bathing_completed_not_toggle</t>
-  </si>
-  <si>
-    <t>healthy_families_completed_not_toggle</t>
-  </si>
-  <si>
-    <t>when_to_wash_your_hands_completed_not_toggle</t>
-  </si>
-  <si>
-    <t>clean_toilets_completed_not_toggle</t>
-  </si>
-  <si>
-    <t>healthy_homes_completed_not_toggle</t>
-  </si>
-  <si>
-    <t>how_to_wash_your_hands_completed_not_toggle</t>
-  </si>
-  <si>
-    <t>Modules</t>
-  </si>
-  <si>
-    <t>td_modules</t>
-  </si>
-  <si>
     <t>td_modules_started</t>
   </si>
   <si>
+    <t>filter_variable</t>
+  </si>
+  <si>
+    <t>filter_value</t>
+  </si>
+  <si>
     <t>data</t>
   </si>
   <si>
-    <t>bar_freq</t>
-  </si>
-  <si>
-    <t>boxplot_freq</t>
-  </si>
-  <si>
-    <t>boxplot_summary</t>
-  </si>
-  <si>
     <t>text = "One on one time", colour = "blue"</t>
   </si>
   <si>
+    <t>response</t>
+  </si>
+  <si>
     <t xml:space="preserve">one_on_one_teen </t>
   </si>
   <si>
@@ -421,27 +424,24 @@
   </si>
   <si>
     <t>praise_teen</t>
-  </si>
-  <si>
-    <t>filter_variable</t>
-  </si>
-  <si>
-    <t>filter_value</t>
-  </si>
-  <si>
-    <t>response</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -449,30 +449,175 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Lucida Console"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -485,8 +630,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -494,36 +825,322 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -810,153 +1427,155 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{870FAA04-D1DA-469D-A43D-8817AEA92C36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="16.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="16.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="9.57142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>120</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.18095238095238" customWidth="1"/>
+    <col min="4" max="4" width="27.4571428571429" customWidth="1"/>
+    <col min="5" max="5" width="43.9047619047619" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -965,52 +1584,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -1018,562 +1637,567 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF152DC1-4175-4A08-98B6-9875CE538BB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1809523809524" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63DAF98-772F-4DFA-8572-31F09E1E6A1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="4" max="4" width="37.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.0857142857143" customWidth="1"/>
+    <col min="5" max="5" width="48.2666666666667" customWidth="1"/>
     <col min="6" max="6" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>107</v>
+        <v>45</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>108</v>
+        <v>47</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>109</v>
+        <v>49</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>110</v>
+        <v>51</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="G5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>111</v>
+        <v>53</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="G6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>112</v>
+        <v>56</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="G7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>113</v>
+        <v>59</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="G8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>114</v>
+        <v>62</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>115</v>
+        <v>65</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>116</v>
+        <v>68</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="G11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>117</v>
+        <v>71</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="G12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>118</v>
+        <v>74</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1CC97C-CAD1-465E-AE96-2C034F6B7FC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>95</v>
+        <v>45</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>96</v>
+        <v>47</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>97</v>
+        <v>49</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>98</v>
+        <v>51</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="G5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>99</v>
+        <v>53</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="G6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>100</v>
+        <v>56</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="G7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>101</v>
+        <v>59</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="G8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>102</v>
+        <v>62</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>103</v>
+        <v>65</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>104</v>
+        <v>68</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="G11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>105</v>
+        <v>71</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="G12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>106</v>
+        <v>74</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1581,484 +2205,487 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF14D57-0BE2-4D81-A4A6-F122E72BED91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G3"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>69</v>
+        <v>88</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>70</v>
+        <v>90</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>71</v>
+        <v>92</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>72</v>
+        <v>94</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="G5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>73</v>
+        <v>96</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="G6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>74</v>
+        <v>98</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="G7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>75</v>
+        <v>100</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="G8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>76</v>
+        <v>102</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>77</v>
+        <v>104</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>78</v>
+        <v>106</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="G11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>79</v>
+        <v>108</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="G12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>80</v>
+        <v>110</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80786C0-93AB-482A-9BF1-EF3E9BEE8E3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>83</v>
+        <v>92</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="G5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="G6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="G7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>87</v>
+        <v>100</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="G8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>88</v>
+        <v>102</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>90</v>
+        <v>106</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="G11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="G12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -2066,139 +2693,148 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2137D2B-4CCD-4240-B497-71AEC5867C95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF59F33-DB76-4BC9-93A0-DA4FB6A22DCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="4" max="4" width="38.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.3619047619048" customWidth="1"/>
+    <col min="5" max="5" width="28.1809523809524" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>127</v>
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
         <v>133</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>130</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>